--- a/donation_data/primary_data_extracted/vfz2023-spd_edit.xlsx
+++ b/donation_data/primary_data_extracted/vfz2023-spd_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michs\Dropbox\_research\CzechElectionData\ced\ced\ced\donation_data\primary_data_extracted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vtitl/Documents/GitHub/ced/donation_data/primary_data_extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1FCCCC4-33CD-4571-A72D-7A77F0F093B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591A3DE8-1D6D-0D4A-9532-AD0775FBEC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D9D4C8B-E7C3-4DC0-98F5-6F93D953BCD3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{5D9D4C8B-E7C3-4DC0-98F5-6F93D953BCD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -704,2150 +704,2150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9908F48E-FC33-43EB-B9F5-C7B7ABB624C8}">
-  <dimension ref="F1:AC153"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V163" sqref="V163"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
         <v>50000</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="V1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="AC1">
+      <c r="D1">
         <v>21128</v>
       </c>
     </row>
-    <row r="2" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>900</v>
       </c>
-      <c r="M2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="V2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="AC2">
+      <c r="D2">
         <v>37838</v>
       </c>
     </row>
-    <row r="3" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>3000</v>
       </c>
-      <c r="M3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="V3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="AC3">
+      <c r="D3">
         <v>17914</v>
       </c>
     </row>
-    <row r="4" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>100000</v>
       </c>
-      <c r="M4" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="V4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="AC4">
+      <c r="D4">
         <v>23736</v>
       </c>
     </row>
-    <row r="5" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>50000</v>
       </c>
-      <c r="M5" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="V5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="AC5">
+      <c r="D5">
         <v>23526</v>
       </c>
     </row>
-    <row r="6" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>500</v>
       </c>
-      <c r="M6" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="V6" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="AC6">
+      <c r="D6">
         <v>22192</v>
       </c>
     </row>
-    <row r="7" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>300</v>
       </c>
-      <c r="M7" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="V7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="AC7">
+      <c r="D7">
         <v>24273</v>
       </c>
     </row>
-    <row r="8" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>1000</v>
       </c>
-      <c r="M8" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="V8" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="AC8">
+      <c r="D8">
         <v>27614</v>
       </c>
     </row>
-    <row r="9" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>300</v>
       </c>
-      <c r="M9" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="V9" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="AC9">
+      <c r="D9">
         <v>28249</v>
       </c>
     </row>
-    <row r="10" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>100</v>
       </c>
-      <c r="M10" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="V10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="AC10">
+      <c r="D10">
         <v>33418</v>
       </c>
     </row>
-    <row r="11" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>200</v>
       </c>
-      <c r="M11" t="s">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="V11" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="AC11">
+      <c r="D11">
         <v>21497</v>
       </c>
     </row>
-    <row r="12" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>200</v>
       </c>
-      <c r="M12" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="V12" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="AC12">
+      <c r="D12">
         <v>23930</v>
       </c>
     </row>
-    <row r="13" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>3500</v>
       </c>
-      <c r="M13" t="s">
+      <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="V13" t="s">
+      <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="AC13">
+      <c r="D13">
         <v>21128</v>
       </c>
     </row>
-    <row r="14" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>50</v>
       </c>
-      <c r="M14" t="s">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="V14" t="s">
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="AC14">
+      <c r="D14">
         <v>29050</v>
       </c>
     </row>
-    <row r="15" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>5000</v>
       </c>
-      <c r="M15" t="s">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="V15" t="s">
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="AC15">
+      <c r="D15">
         <v>26905</v>
       </c>
     </row>
-    <row r="16" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>650</v>
       </c>
-      <c r="M16" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="V16" t="s">
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="AC16">
+      <c r="D16">
         <v>27614</v>
       </c>
     </row>
-    <row r="17" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>500</v>
       </c>
-      <c r="M17" t="s">
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="V17" t="s">
+      <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="AC17">
+      <c r="D17">
         <v>27566</v>
       </c>
     </row>
-    <row r="18" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>5000</v>
       </c>
-      <c r="M18" t="s">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="V18" t="s">
+      <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="AC18">
+      <c r="D18">
         <v>21162</v>
       </c>
     </row>
-    <row r="19" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>1000</v>
       </c>
-      <c r="M19" t="s">
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="V19" t="s">
+      <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="AC19">
+      <c r="D19">
         <v>19321</v>
       </c>
     </row>
-    <row r="20" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>200</v>
       </c>
-      <c r="M20" t="s">
+      <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="V20" t="s">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="AC20">
+      <c r="D20">
         <v>21497</v>
       </c>
     </row>
-    <row r="21" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>300</v>
       </c>
-      <c r="M21" t="s">
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="V21" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="AC21">
+      <c r="D21">
         <v>28249</v>
       </c>
     </row>
-    <row r="22" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>400</v>
       </c>
-      <c r="M22" t="s">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="V22" t="s">
+      <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="AC22">
+      <c r="D22">
         <v>26905</v>
       </c>
     </row>
-    <row r="23" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>200</v>
       </c>
-      <c r="M23" t="s">
+      <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="V23" t="s">
+      <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="AC23">
+      <c r="D23">
         <v>23930</v>
       </c>
     </row>
-    <row r="24" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>999</v>
       </c>
-      <c r="M24" t="s">
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="V24" t="s">
+      <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="AC24">
+      <c r="D24">
         <v>18340</v>
       </c>
     </row>
-    <row r="25" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>50</v>
       </c>
-      <c r="M25" t="s">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="V25" t="s">
+      <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="AC25">
+      <c r="D25">
         <v>29050</v>
       </c>
     </row>
-    <row r="26" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>800</v>
       </c>
-      <c r="M26" t="s">
+      <c r="B26" t="s">
         <v>14</v>
       </c>
-      <c r="V26" t="s">
+      <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="AC26">
+      <c r="D26">
         <v>27614</v>
       </c>
     </row>
-    <row r="27" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>800</v>
       </c>
-      <c r="M27" t="s">
+      <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="V27" t="s">
+      <c r="C27" t="s">
         <v>37</v>
       </c>
-      <c r="AC27">
+      <c r="D27">
         <v>33039</v>
       </c>
     </row>
-    <row r="28" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>5000</v>
       </c>
-      <c r="M28" t="s">
+      <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="V28" t="s">
+      <c r="C28" t="s">
         <v>39</v>
       </c>
-      <c r="AC28">
+      <c r="D28">
         <v>19260</v>
       </c>
     </row>
-    <row r="29" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>500</v>
       </c>
-      <c r="M29" t="s">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="V29" t="s">
+      <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="AC29">
+      <c r="D29">
         <v>27566</v>
       </c>
     </row>
-    <row r="30" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>400</v>
       </c>
-      <c r="M30" t="s">
+      <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="V30" t="s">
+      <c r="C30" t="s">
         <v>37</v>
       </c>
-      <c r="AC30">
+      <c r="D30">
         <v>33039</v>
       </c>
     </row>
-    <row r="31" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>2000</v>
       </c>
-      <c r="M31" t="s">
+      <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="V31" t="s">
+      <c r="C31" t="s">
         <v>41</v>
       </c>
-      <c r="AC31">
+      <c r="D31">
         <v>29724</v>
       </c>
     </row>
-    <row r="32" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>300</v>
       </c>
-      <c r="M32" t="s">
+      <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="V32" t="s">
+      <c r="C32" t="s">
         <v>13</v>
       </c>
-      <c r="AC32">
+      <c r="D32">
         <v>24273</v>
       </c>
     </row>
-    <row r="33" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>200</v>
       </c>
-      <c r="M33" t="s">
+      <c r="B33" t="s">
         <v>4</v>
       </c>
-      <c r="V33" t="s">
+      <c r="C33" t="s">
         <v>20</v>
       </c>
-      <c r="AC33">
+      <c r="D33">
         <v>21497</v>
       </c>
     </row>
-    <row r="34" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>300</v>
       </c>
-      <c r="M34" t="s">
+      <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="V34" t="s">
+      <c r="C34" t="s">
         <v>17</v>
       </c>
-      <c r="AC34">
+      <c r="D34">
         <v>28249</v>
       </c>
     </row>
-    <row r="35" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>400</v>
       </c>
-      <c r="M35" t="s">
+      <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="V35" t="s">
+      <c r="C35" t="s">
         <v>25</v>
       </c>
-      <c r="AC35">
+      <c r="D35">
         <v>26905</v>
       </c>
     </row>
-    <row r="36" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>200</v>
       </c>
-      <c r="M36" t="s">
+      <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="V36" t="s">
+      <c r="C36" t="s">
         <v>22</v>
       </c>
-      <c r="AC36">
+      <c r="D36">
         <v>23930</v>
       </c>
     </row>
-    <row r="37" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>3000</v>
       </c>
-      <c r="M37" t="s">
+      <c r="B37" t="s">
         <v>42</v>
       </c>
-      <c r="V37" t="s">
+      <c r="C37" t="s">
         <v>43</v>
       </c>
-      <c r="AC37">
+      <c r="D37">
         <v>27777</v>
       </c>
     </row>
-    <row r="38" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>50</v>
       </c>
-      <c r="M38" t="s">
+      <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="V38" t="s">
+      <c r="C38" t="s">
         <v>23</v>
       </c>
-      <c r="AC38">
+      <c r="D38">
         <v>29050</v>
       </c>
     </row>
-    <row r="39" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>500</v>
       </c>
-      <c r="M39" t="s">
+      <c r="B39" t="s">
         <v>26</v>
       </c>
-      <c r="V39" t="s">
+      <c r="C39" t="s">
         <v>44</v>
       </c>
-      <c r="AC39">
+      <c r="D39">
         <v>27566</v>
       </c>
     </row>
-    <row r="40" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>400</v>
       </c>
-      <c r="M40" t="s">
+      <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="V40" t="s">
+      <c r="C40" t="s">
         <v>37</v>
       </c>
-      <c r="AC40">
+      <c r="D40">
         <v>33039</v>
       </c>
     </row>
-    <row r="41" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>300</v>
       </c>
-      <c r="M41" t="s">
+      <c r="B41" t="s">
         <v>12</v>
       </c>
-      <c r="V41" t="s">
+      <c r="C41" t="s">
         <v>13</v>
       </c>
-      <c r="AC41">
+      <c r="D41">
         <v>24273</v>
       </c>
     </row>
-    <row r="42" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>300</v>
       </c>
-      <c r="M42" t="s">
+      <c r="B42" t="s">
         <v>45</v>
       </c>
-      <c r="V42" t="s">
+      <c r="C42" t="s">
         <v>46</v>
       </c>
-      <c r="AC42">
+      <c r="D42">
         <v>24611</v>
       </c>
     </row>
-    <row r="43" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>100</v>
       </c>
-      <c r="M43" t="s">
+      <c r="B43" t="s">
         <v>47</v>
       </c>
-      <c r="V43" t="s">
+      <c r="C43" t="s">
         <v>48</v>
       </c>
-      <c r="AC43">
+      <c r="D43">
         <v>20395</v>
       </c>
     </row>
-    <row r="44" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>300</v>
       </c>
-      <c r="M44" t="s">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
-      <c r="V44" t="s">
+      <c r="C44" t="s">
         <v>17</v>
       </c>
-      <c r="AC44">
+      <c r="D44">
         <v>28249</v>
       </c>
     </row>
-    <row r="45" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>400</v>
       </c>
-      <c r="M45" t="s">
+      <c r="B45" t="s">
         <v>24</v>
       </c>
-      <c r="V45" t="s">
+      <c r="C45" t="s">
         <v>25</v>
       </c>
-      <c r="AC45">
+      <c r="D45">
         <v>26905</v>
       </c>
     </row>
-    <row r="46" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>200</v>
       </c>
-      <c r="M46" t="s">
+      <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="V46" t="s">
+      <c r="C46" t="s">
         <v>20</v>
       </c>
-      <c r="AC46">
+      <c r="D46">
         <v>21497</v>
       </c>
     </row>
-    <row r="47" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>200</v>
       </c>
-      <c r="M47" t="s">
+      <c r="B47" t="s">
         <v>21</v>
       </c>
-      <c r="V47" t="s">
+      <c r="C47" t="s">
         <v>22</v>
       </c>
-      <c r="AC47">
+      <c r="D47">
         <v>23930</v>
       </c>
     </row>
-    <row r="48" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>50</v>
       </c>
-      <c r="M48" t="s">
+      <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="V48" t="s">
+      <c r="C48" t="s">
         <v>23</v>
       </c>
-      <c r="AC48">
+      <c r="D48">
         <v>29050</v>
       </c>
     </row>
-    <row r="49" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>100</v>
       </c>
-      <c r="M49" t="s">
+      <c r="B49" t="s">
         <v>47</v>
       </c>
-      <c r="V49" t="s">
+      <c r="C49" t="s">
         <v>48</v>
       </c>
-      <c r="AC49">
+      <c r="D49">
         <v>20395</v>
       </c>
     </row>
-    <row r="50" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>500</v>
       </c>
-      <c r="M50" t="s">
+      <c r="B50" t="s">
         <v>26</v>
       </c>
-      <c r="V50" t="s">
+      <c r="C50" t="s">
         <v>44</v>
       </c>
-      <c r="AC50">
+      <c r="D50">
         <v>27566</v>
       </c>
     </row>
-    <row r="51" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>1000</v>
       </c>
-      <c r="M51" t="s">
+      <c r="B51" t="s">
         <v>49</v>
       </c>
-      <c r="V51" t="s">
+      <c r="C51" t="s">
         <v>50</v>
       </c>
-      <c r="AC51">
+      <c r="D51">
         <v>20729</v>
       </c>
     </row>
-    <row r="52" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>400</v>
       </c>
-      <c r="M52" t="s">
+      <c r="B52" t="s">
         <v>36</v>
       </c>
-      <c r="V52" t="s">
+      <c r="C52" t="s">
         <v>37</v>
       </c>
-      <c r="AC52">
+      <c r="D52">
         <v>33039</v>
       </c>
     </row>
-    <row r="53" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>300</v>
       </c>
-      <c r="M53" t="s">
+      <c r="B53" t="s">
         <v>12</v>
       </c>
-      <c r="V53" t="s">
+      <c r="C53" t="s">
         <v>13</v>
       </c>
-      <c r="AC53">
+      <c r="D53">
         <v>24273</v>
       </c>
     </row>
-    <row r="54" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>5000</v>
       </c>
-      <c r="M54" t="s">
+      <c r="B54" t="s">
         <v>51</v>
       </c>
-      <c r="V54" t="s">
+      <c r="C54" t="s">
         <v>52</v>
       </c>
-      <c r="AC54" t="s">
+      <c r="D54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>200</v>
       </c>
-      <c r="M55" t="s">
+      <c r="B55" t="s">
         <v>4</v>
       </c>
-      <c r="V55" t="s">
+      <c r="C55" t="s">
         <v>20</v>
       </c>
-      <c r="AC55">
+      <c r="D55">
         <v>21497</v>
       </c>
     </row>
-    <row r="56" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>14000</v>
       </c>
-      <c r="M56" t="s">
+      <c r="B56" t="s">
         <v>45</v>
       </c>
-      <c r="V56" t="s">
+      <c r="C56" t="s">
         <v>54</v>
       </c>
-      <c r="AC56">
+      <c r="D56">
         <v>29542</v>
       </c>
     </row>
-    <row r="57" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>300</v>
       </c>
-      <c r="M57" t="s">
+      <c r="B57" t="s">
         <v>16</v>
       </c>
-      <c r="V57" t="s">
+      <c r="C57" t="s">
         <v>17</v>
       </c>
-      <c r="AC57">
+      <c r="D57">
         <v>28249</v>
       </c>
     </row>
-    <row r="58" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>400</v>
       </c>
-      <c r="M58" t="s">
+      <c r="B58" t="s">
         <v>24</v>
       </c>
-      <c r="V58" t="s">
+      <c r="C58" t="s">
         <v>25</v>
       </c>
-      <c r="AC58">
+      <c r="D58">
         <v>26905</v>
       </c>
     </row>
-    <row r="59" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>200</v>
       </c>
-      <c r="M59" t="s">
+      <c r="B59" t="s">
         <v>21</v>
       </c>
-      <c r="V59" t="s">
+      <c r="C59" t="s">
         <v>22</v>
       </c>
-      <c r="AC59">
+      <c r="D59">
         <v>23930</v>
       </c>
     </row>
-    <row r="60" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>3500</v>
       </c>
-      <c r="M60" t="s">
+      <c r="B60" t="s">
         <v>55</v>
       </c>
-      <c r="V60" t="s">
+      <c r="C60" t="s">
         <v>56</v>
       </c>
-      <c r="AC60">
+      <c r="D60">
         <v>30053</v>
       </c>
     </row>
-    <row r="61" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>50</v>
       </c>
-      <c r="M61" t="s">
+      <c r="B61" t="s">
         <v>4</v>
       </c>
-      <c r="V61" t="s">
+      <c r="C61" t="s">
         <v>23</v>
       </c>
-      <c r="AC61">
+      <c r="D61">
         <v>29050</v>
       </c>
     </row>
-    <row r="62" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>100</v>
       </c>
-      <c r="M62" t="s">
+      <c r="B62" t="s">
         <v>47</v>
       </c>
-      <c r="V62" t="s">
+      <c r="C62" t="s">
         <v>48</v>
       </c>
-      <c r="AC62">
+      <c r="D62">
         <v>20395</v>
       </c>
     </row>
-    <row r="63" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>500</v>
       </c>
-      <c r="M63" t="s">
+      <c r="B63" t="s">
         <v>26</v>
       </c>
-      <c r="V63" t="s">
+      <c r="C63" t="s">
         <v>44</v>
       </c>
-      <c r="AC63">
+      <c r="D63">
         <v>27566</v>
       </c>
     </row>
-    <row r="64" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>400</v>
       </c>
-      <c r="M64" t="s">
+      <c r="B64" t="s">
         <v>36</v>
       </c>
-      <c r="V64" t="s">
+      <c r="C64" t="s">
         <v>37</v>
       </c>
-      <c r="AC64">
+      <c r="D64">
         <v>33039</v>
       </c>
     </row>
-    <row r="65" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>300</v>
       </c>
-      <c r="M65" t="s">
+      <c r="B65" t="s">
         <v>12</v>
       </c>
-      <c r="V65" t="s">
+      <c r="C65" t="s">
         <v>13</v>
       </c>
-      <c r="AC65">
+      <c r="D65">
         <v>24273</v>
       </c>
     </row>
-    <row r="66" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>200</v>
       </c>
-      <c r="M66" t="s">
+      <c r="B66" t="s">
         <v>4</v>
       </c>
-      <c r="V66" t="s">
+      <c r="C66" t="s">
         <v>20</v>
       </c>
-      <c r="AC66">
+      <c r="D66">
         <v>21497</v>
       </c>
     </row>
-    <row r="67" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>300</v>
       </c>
-      <c r="M67" t="s">
+      <c r="B67" t="s">
         <v>16</v>
       </c>
-      <c r="V67" t="s">
+      <c r="C67" t="s">
         <v>17</v>
       </c>
-      <c r="AC67">
+      <c r="D67">
         <v>28249</v>
       </c>
     </row>
-    <row r="68" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>400</v>
       </c>
-      <c r="M68" t="s">
+      <c r="B68" t="s">
         <v>24</v>
       </c>
-      <c r="V68" t="s">
+      <c r="C68" t="s">
         <v>25</v>
       </c>
-      <c r="AC68">
+      <c r="D68">
         <v>26905</v>
       </c>
     </row>
-    <row r="69" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>1000</v>
       </c>
-      <c r="M69" t="s">
+      <c r="B69" t="s">
         <v>57</v>
       </c>
-      <c r="AC69" t="s">
+      <c r="D69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>200</v>
       </c>
-      <c r="M70" t="s">
+      <c r="B70" t="s">
         <v>21</v>
       </c>
-      <c r="V70" t="s">
+      <c r="C70" t="s">
         <v>22</v>
       </c>
-      <c r="AC70">
+      <c r="D70">
         <v>23930</v>
       </c>
     </row>
-    <row r="71" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>50</v>
       </c>
-      <c r="M71" t="s">
+      <c r="B71" t="s">
         <v>4</v>
       </c>
-      <c r="V71" t="s">
+      <c r="C71" t="s">
         <v>59</v>
       </c>
-      <c r="AC71">
+      <c r="D71">
         <v>29050</v>
       </c>
     </row>
-    <row r="72" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>100</v>
       </c>
-      <c r="M72" t="s">
+      <c r="B72" t="s">
         <v>47</v>
       </c>
-      <c r="V72" t="s">
+      <c r="C72" t="s">
         <v>48</v>
       </c>
-      <c r="AC72">
+      <c r="D72">
         <v>20395</v>
       </c>
     </row>
-    <row r="73" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>500</v>
       </c>
-      <c r="M73" t="s">
+      <c r="B73" t="s">
         <v>26</v>
       </c>
-      <c r="V73" t="s">
+      <c r="C73" t="s">
         <v>27</v>
       </c>
-      <c r="AC73">
+      <c r="D73">
         <v>27566</v>
       </c>
     </row>
-    <row r="74" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>400</v>
       </c>
-      <c r="M74" t="s">
+      <c r="B74" t="s">
         <v>36</v>
       </c>
-      <c r="V74" t="s">
+      <c r="C74" t="s">
         <v>37</v>
       </c>
-      <c r="AC74">
+      <c r="D74">
         <v>33039</v>
       </c>
     </row>
-    <row r="75" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>1000</v>
       </c>
-      <c r="M75" t="s">
+      <c r="B75" t="s">
         <v>49</v>
       </c>
-      <c r="V75" t="s">
+      <c r="C75" t="s">
         <v>50</v>
       </c>
-      <c r="AC75">
+      <c r="D75">
         <v>20729</v>
       </c>
     </row>
-    <row r="76" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>300</v>
       </c>
-      <c r="M76" t="s">
+      <c r="B76" t="s">
         <v>16</v>
       </c>
-      <c r="V76" t="s">
+      <c r="C76" t="s">
         <v>17</v>
       </c>
-      <c r="AC76">
+      <c r="D76">
         <v>28249</v>
       </c>
     </row>
-    <row r="77" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>400</v>
       </c>
-      <c r="M77" t="s">
+      <c r="B77" t="s">
         <v>24</v>
       </c>
-      <c r="V77" t="s">
+      <c r="C77" t="s">
         <v>25</v>
       </c>
-      <c r="AC77">
+      <c r="D77">
         <v>26905</v>
       </c>
     </row>
-    <row r="78" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>200</v>
       </c>
-      <c r="M78" t="s">
+      <c r="B78" t="s">
         <v>4</v>
       </c>
-      <c r="V78" t="s">
+      <c r="C78" t="s">
         <v>20</v>
       </c>
-      <c r="AC78">
+      <c r="D78">
         <v>21497</v>
       </c>
     </row>
-    <row r="79" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>300</v>
       </c>
-      <c r="M79" t="s">
+      <c r="B79" t="s">
         <v>12</v>
       </c>
-      <c r="V79" t="s">
+      <c r="C79" t="s">
         <v>13</v>
       </c>
-      <c r="AC79">
+      <c r="D79">
         <v>24273</v>
       </c>
     </row>
-    <row r="80" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>200</v>
       </c>
-      <c r="M80" t="s">
+      <c r="B80" t="s">
         <v>21</v>
       </c>
-      <c r="V80" t="s">
+      <c r="C80" t="s">
         <v>22</v>
       </c>
-      <c r="AC80">
+      <c r="D80">
         <v>23930</v>
       </c>
     </row>
-    <row r="81" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>50</v>
       </c>
-      <c r="M81" t="s">
+      <c r="B81" t="s">
         <v>60</v>
       </c>
-      <c r="V81" t="s">
+      <c r="C81" t="s">
         <v>23</v>
       </c>
-      <c r="AC81">
+      <c r="D81">
         <v>29050</v>
       </c>
     </row>
-    <row r="82" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>100</v>
       </c>
-      <c r="M82" t="s">
+      <c r="B82" t="s">
         <v>47</v>
       </c>
-      <c r="V82" t="s">
+      <c r="C82" t="s">
         <v>48</v>
       </c>
-      <c r="AC82">
+      <c r="D82">
         <v>20395</v>
       </c>
     </row>
-    <row r="83" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>500</v>
       </c>
-      <c r="M83" t="s">
+      <c r="B83" t="s">
         <v>26</v>
       </c>
-      <c r="V83" t="s">
+      <c r="C83" t="s">
         <v>27</v>
       </c>
-      <c r="AC83">
+      <c r="D83">
         <v>27566</v>
       </c>
     </row>
-    <row r="84" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>400</v>
       </c>
-      <c r="M84" t="s">
+      <c r="B84" t="s">
         <v>36</v>
       </c>
-      <c r="V84" t="s">
+      <c r="C84" t="s">
         <v>37</v>
       </c>
-      <c r="AC84">
+      <c r="D84">
         <v>33039</v>
       </c>
     </row>
-    <row r="85" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>300</v>
       </c>
-      <c r="M85" t="s">
+      <c r="B85" t="s">
         <v>12</v>
       </c>
-      <c r="V85" t="s">
+      <c r="C85" t="s">
         <v>13</v>
       </c>
-      <c r="AC85">
+      <c r="D85">
         <v>24273</v>
       </c>
     </row>
-    <row r="86" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>5000</v>
       </c>
-      <c r="M86" t="s">
+      <c r="B86" t="s">
         <v>61</v>
       </c>
-      <c r="V86" t="s">
+      <c r="C86" t="s">
         <v>62</v>
       </c>
-      <c r="AC86">
+      <c r="D86">
         <v>20015</v>
       </c>
     </row>
-    <row r="87" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>3000</v>
       </c>
-      <c r="M87" t="s">
+      <c r="B87" t="s">
         <v>63</v>
       </c>
-      <c r="V87" t="s">
+      <c r="C87" t="s">
         <v>64</v>
       </c>
-      <c r="AC87">
+      <c r="D87">
         <v>30795</v>
       </c>
     </row>
-    <row r="88" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>200</v>
       </c>
-      <c r="M88" t="s">
+      <c r="B88" t="s">
         <v>4</v>
       </c>
-      <c r="V88" t="s">
+      <c r="C88" t="s">
         <v>20</v>
       </c>
-      <c r="AC88">
+      <c r="D88">
         <v>21497</v>
       </c>
     </row>
-    <row r="89" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>300</v>
       </c>
-      <c r="M89" t="s">
+      <c r="B89" t="s">
         <v>16</v>
       </c>
-      <c r="V89" t="s">
+      <c r="C89" t="s">
         <v>17</v>
       </c>
-      <c r="AC89">
+      <c r="D89">
         <v>28249</v>
       </c>
     </row>
-    <row r="90" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>400</v>
       </c>
-      <c r="M90" t="s">
+      <c r="B90" t="s">
         <v>24</v>
       </c>
-      <c r="V90" t="s">
+      <c r="C90" t="s">
         <v>25</v>
       </c>
-      <c r="AC90">
+      <c r="D90">
         <v>26905</v>
       </c>
     </row>
-    <row r="91" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>200</v>
       </c>
-      <c r="M91" t="s">
+      <c r="B91" t="s">
         <v>21</v>
       </c>
-      <c r="V91" t="s">
+      <c r="C91" t="s">
         <v>22</v>
       </c>
-      <c r="AC91">
+      <c r="D91">
         <v>23930</v>
       </c>
     </row>
-    <row r="92" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>50</v>
       </c>
-      <c r="M92" t="s">
+      <c r="B92" t="s">
         <v>4</v>
       </c>
-      <c r="V92" t="s">
+      <c r="C92" t="s">
         <v>23</v>
       </c>
-      <c r="AC92">
+      <c r="D92">
         <v>29050</v>
       </c>
     </row>
-    <row r="93" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>100</v>
       </c>
-      <c r="M93" t="s">
+      <c r="B93" t="s">
         <v>47</v>
       </c>
-      <c r="V93" t="s">
+      <c r="C93" t="s">
         <v>48</v>
       </c>
-      <c r="AC93">
+      <c r="D93">
         <v>20395</v>
       </c>
     </row>
-    <row r="94" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>500</v>
       </c>
-      <c r="M94" t="s">
+      <c r="B94" t="s">
         <v>26</v>
       </c>
-      <c r="V94" t="s">
+      <c r="C94" t="s">
         <v>27</v>
       </c>
-      <c r="AC94">
+      <c r="D94">
         <v>27566</v>
       </c>
     </row>
-    <row r="95" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>1500</v>
       </c>
-      <c r="M95" t="s">
+      <c r="B95" t="s">
         <v>42</v>
       </c>
-      <c r="V95" t="s">
+      <c r="C95" t="s">
         <v>43</v>
       </c>
-      <c r="AC95" t="s">
+      <c r="D95" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>400</v>
       </c>
-      <c r="M96" t="s">
+      <c r="B96" t="s">
         <v>36</v>
       </c>
-      <c r="V96" t="s">
+      <c r="C96" t="s">
         <v>37</v>
       </c>
-      <c r="AC96">
+      <c r="D96">
         <v>33039</v>
       </c>
     </row>
-    <row r="97" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>5000</v>
       </c>
-      <c r="M97" t="s">
+      <c r="B97" t="s">
         <v>14</v>
       </c>
-      <c r="V97" t="s">
+      <c r="C97" t="s">
         <v>66</v>
       </c>
-      <c r="AC97">
+      <c r="D97">
         <v>28196</v>
       </c>
     </row>
-    <row r="98" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>5000</v>
       </c>
-      <c r="M98" t="s">
+      <c r="B98" t="s">
         <v>67</v>
       </c>
-      <c r="V98" t="s">
+      <c r="C98" t="s">
         <v>68</v>
       </c>
-      <c r="AC98">
+      <c r="D98">
         <v>25779</v>
       </c>
     </row>
-    <row r="99" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>200</v>
       </c>
-      <c r="M99" t="s">
+      <c r="B99" t="s">
         <v>4</v>
       </c>
-      <c r="V99" t="s">
+      <c r="C99" t="s">
         <v>20</v>
       </c>
-      <c r="AC99" t="s">
+      <c r="D99" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>300</v>
       </c>
-      <c r="M100" t="s">
+      <c r="B100" t="s">
         <v>16</v>
       </c>
-      <c r="V100" t="s">
+      <c r="C100" t="s">
         <v>17</v>
       </c>
-      <c r="AC100">
+      <c r="D100">
         <v>28249</v>
       </c>
     </row>
-    <row r="101" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>5000</v>
       </c>
-      <c r="M101" t="s">
+      <c r="B101" t="s">
         <v>70</v>
       </c>
-      <c r="V101" t="s">
+      <c r="C101" t="s">
         <v>71</v>
       </c>
-      <c r="AC101">
+      <c r="D101">
         <v>16686</v>
       </c>
     </row>
-    <row r="102" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>200</v>
       </c>
-      <c r="M102" t="s">
+      <c r="B102" t="s">
         <v>21</v>
       </c>
-      <c r="V102" t="s">
+      <c r="C102" t="s">
         <v>22</v>
       </c>
-      <c r="AC102">
+      <c r="D102">
         <v>23930</v>
       </c>
     </row>
-    <row r="103" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F103">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>400</v>
       </c>
-      <c r="M103" t="s">
+      <c r="B103" t="s">
         <v>24</v>
       </c>
-      <c r="V103" t="s">
+      <c r="C103" t="s">
         <v>25</v>
       </c>
-      <c r="AC103">
+      <c r="D103">
         <v>26905</v>
       </c>
     </row>
-    <row r="104" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>5000</v>
       </c>
-      <c r="M104" t="s">
+      <c r="B104" t="s">
         <v>72</v>
       </c>
-      <c r="V104" t="s">
+      <c r="C104" t="s">
         <v>73</v>
       </c>
-      <c r="AC104">
+      <c r="D104">
         <v>18493</v>
       </c>
     </row>
-    <row r="105" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F105">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
         <v>300</v>
       </c>
-      <c r="M105" t="s">
+      <c r="B105" t="s">
         <v>12</v>
       </c>
-      <c r="V105" t="s">
+      <c r="C105" t="s">
         <v>13</v>
       </c>
-      <c r="AC105">
+      <c r="D105">
         <v>24273</v>
       </c>
     </row>
-    <row r="106" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
         <v>1000</v>
       </c>
-      <c r="M106" t="s">
+      <c r="B106" t="s">
         <v>74</v>
       </c>
-      <c r="V106" t="s">
+      <c r="C106" t="s">
         <v>75</v>
       </c>
-      <c r="AC106">
+      <c r="D106">
         <v>17762</v>
       </c>
     </row>
-    <row r="107" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F107">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
         <v>400</v>
       </c>
-      <c r="M107" t="s">
+      <c r="B107" t="s">
         <v>51</v>
       </c>
-      <c r="V107" t="s">
+      <c r="C107" t="s">
         <v>52</v>
       </c>
-      <c r="AC107">
+      <c r="D107">
         <v>23662</v>
       </c>
     </row>
-    <row r="108" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
         <v>100</v>
       </c>
-      <c r="M108" t="s">
+      <c r="B108" t="s">
         <v>47</v>
       </c>
-      <c r="V108" t="s">
+      <c r="C108" t="s">
         <v>48</v>
       </c>
-      <c r="AC108">
+      <c r="D108">
         <v>20395</v>
       </c>
     </row>
-    <row r="109" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
         <v>20000</v>
       </c>
-      <c r="M109" t="s">
+      <c r="B109" t="s">
         <v>0</v>
       </c>
-      <c r="V109" t="s">
+      <c r="C109" t="s">
         <v>76</v>
       </c>
-      <c r="AC109">
+      <c r="D109">
         <v>22093</v>
       </c>
     </row>
-    <row r="110" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
         <v>20000</v>
       </c>
-      <c r="M110" t="s">
+      <c r="B110" t="s">
         <v>72</v>
       </c>
-      <c r="V110" t="s">
+      <c r="C110" t="s">
         <v>77</v>
       </c>
-      <c r="AC110">
+      <c r="D110">
         <v>28085</v>
       </c>
     </row>
-    <row r="111" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F111">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
         <v>5000</v>
       </c>
-      <c r="M111" t="s">
+      <c r="B111" t="s">
         <v>78</v>
       </c>
-      <c r="V111" t="s">
+      <c r="C111" t="s">
         <v>79</v>
       </c>
-      <c r="AC111">
+      <c r="D111">
         <v>29011</v>
       </c>
     </row>
-    <row r="112" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
         <v>100000</v>
       </c>
-      <c r="M112" t="s">
+      <c r="B112" t="s">
         <v>6</v>
       </c>
-      <c r="V112" t="s">
+      <c r="C112" t="s">
         <v>7</v>
       </c>
-      <c r="AC112">
+      <c r="D112">
         <v>23736</v>
       </c>
     </row>
-    <row r="113" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>500</v>
       </c>
-      <c r="M113" t="s">
+      <c r="B113" t="s">
         <v>26</v>
       </c>
-      <c r="V113" t="s">
+      <c r="C113" t="s">
         <v>27</v>
       </c>
-      <c r="AC113">
+      <c r="D113">
         <v>27566</v>
       </c>
     </row>
-    <row r="114" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
         <v>400</v>
       </c>
-      <c r="M114" t="s">
+      <c r="B114" t="s">
         <v>36</v>
       </c>
-      <c r="V114" t="s">
+      <c r="C114" t="s">
         <v>37</v>
       </c>
-      <c r="AC114">
+      <c r="D114">
         <v>33039</v>
       </c>
     </row>
-    <row r="115" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>5000</v>
       </c>
-      <c r="M115" t="s">
+      <c r="B115" t="s">
         <v>80</v>
       </c>
-      <c r="V115" t="s">
+      <c r="C115" t="s">
         <v>81</v>
       </c>
-      <c r="AC115">
+      <c r="D115">
         <v>28793</v>
       </c>
     </row>
-    <row r="116" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
         <v>5000</v>
       </c>
-      <c r="M116" t="s">
+      <c r="B116" t="s">
         <v>82</v>
       </c>
-      <c r="V116" t="s">
+      <c r="C116" t="s">
         <v>83</v>
       </c>
-      <c r="AC116">
+      <c r="D116">
         <v>23819</v>
       </c>
     </row>
-    <row r="117" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
         <v>300</v>
       </c>
-      <c r="M117" t="s">
+      <c r="B117" t="s">
         <v>12</v>
       </c>
-      <c r="V117" t="s">
+      <c r="C117" t="s">
         <v>13</v>
       </c>
-      <c r="AC117">
+      <c r="D117">
         <v>24273</v>
       </c>
     </row>
-    <row r="118" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
         <v>400</v>
       </c>
-      <c r="M118" t="s">
+      <c r="B118" t="s">
         <v>51</v>
       </c>
-      <c r="V118" t="s">
+      <c r="C118" t="s">
         <v>52</v>
       </c>
-      <c r="AC118">
+      <c r="D118">
         <v>23662</v>
       </c>
     </row>
-    <row r="119" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
         <v>300</v>
       </c>
-      <c r="M119" t="s">
+      <c r="B119" t="s">
         <v>16</v>
       </c>
-      <c r="V119" t="s">
+      <c r="C119" t="s">
         <v>17</v>
       </c>
-      <c r="AC119">
+      <c r="D119">
         <v>28249</v>
       </c>
     </row>
-    <row r="120" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
         <v>400</v>
       </c>
-      <c r="M120" t="s">
+      <c r="B120" t="s">
         <v>24</v>
       </c>
-      <c r="V120" t="s">
+      <c r="C120" t="s">
         <v>25</v>
       </c>
-      <c r="AC120">
+      <c r="D120">
         <v>26905</v>
       </c>
     </row>
-    <row r="121" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F121">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
         <v>200</v>
       </c>
-      <c r="M121" t="s">
+      <c r="B121" t="s">
         <v>4</v>
       </c>
-      <c r="V121" t="s">
+      <c r="C121" t="s">
         <v>20</v>
       </c>
-      <c r="AC121">
+      <c r="D121">
         <v>21497</v>
       </c>
     </row>
-    <row r="122" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
         <v>2500</v>
       </c>
-      <c r="M122" t="s">
+      <c r="B122" t="s">
         <v>84</v>
       </c>
-      <c r="V122" t="s">
+      <c r="C122" t="s">
         <v>85</v>
       </c>
-      <c r="AC122">
+      <c r="D122">
         <v>22567</v>
       </c>
     </row>
-    <row r="123" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F123">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
         <v>200</v>
       </c>
-      <c r="M123" t="s">
+      <c r="B123" t="s">
         <v>21</v>
       </c>
-      <c r="V123" t="s">
+      <c r="C123" t="s">
         <v>22</v>
       </c>
-      <c r="AC123">
+      <c r="D123">
         <v>23930</v>
       </c>
     </row>
-    <row r="124" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F124">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
         <v>100</v>
       </c>
-      <c r="M124" t="s">
+      <c r="B124" t="s">
         <v>47</v>
       </c>
-      <c r="V124" t="s">
+      <c r="C124" t="s">
         <v>48</v>
       </c>
-      <c r="AC124">
+      <c r="D124">
         <v>20395</v>
       </c>
     </row>
-    <row r="125" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
         <v>500</v>
       </c>
-      <c r="M125" t="s">
+      <c r="B125" t="s">
         <v>26</v>
       </c>
-      <c r="V125" t="s">
+      <c r="C125" t="s">
         <v>27</v>
       </c>
-      <c r="AC125">
+      <c r="D125">
         <v>27566</v>
       </c>
     </row>
-    <row r="126" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F126">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
         <v>1500</v>
       </c>
-      <c r="M126" t="s">
+      <c r="B126" t="s">
         <v>42</v>
       </c>
-      <c r="V126" t="s">
+      <c r="C126" t="s">
         <v>43</v>
       </c>
-      <c r="AC126">
+      <c r="D126">
         <v>27777</v>
       </c>
     </row>
-    <row r="127" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F127">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
         <v>400</v>
       </c>
-      <c r="M127" t="s">
+      <c r="B127" t="s">
         <v>36</v>
       </c>
-      <c r="V127" t="s">
+      <c r="C127" t="s">
         <v>37</v>
       </c>
-      <c r="AC127">
+      <c r="D127">
         <v>33039</v>
       </c>
     </row>
-    <row r="128" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F128">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
         <v>300000</v>
       </c>
-      <c r="M128" t="s">
+      <c r="B128" t="s">
         <v>86</v>
       </c>
-      <c r="V128" t="s">
+      <c r="C128" t="s">
         <v>87</v>
       </c>
-      <c r="AC128">
+      <c r="D128">
         <v>19261</v>
       </c>
     </row>
-    <row r="129" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F129">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
         <v>1400</v>
       </c>
-      <c r="M129" t="s">
+      <c r="B129" t="s">
         <v>14</v>
       </c>
-      <c r="V129" t="s">
+      <c r="C129" t="s">
         <v>15</v>
       </c>
-      <c r="AC129">
+      <c r="D129">
         <v>27614</v>
       </c>
     </row>
-    <row r="130" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F130">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
         <v>400</v>
       </c>
-      <c r="M130" t="s">
+      <c r="B130" t="s">
         <v>51</v>
       </c>
-      <c r="V130" t="s">
+      <c r="C130" t="s">
         <v>52</v>
       </c>
-      <c r="AC130">
+      <c r="D130">
         <v>23662</v>
       </c>
     </row>
-    <row r="131" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F131">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
         <v>200</v>
       </c>
-      <c r="M131" t="s">
+      <c r="B131" t="s">
         <v>4</v>
       </c>
-      <c r="V131" t="s">
+      <c r="C131" t="s">
         <v>20</v>
       </c>
-      <c r="AC131">
+      <c r="D131">
         <v>21497</v>
       </c>
     </row>
-    <row r="132" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F132">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
         <v>300</v>
       </c>
-      <c r="M132" t="s">
+      <c r="B132" t="s">
         <v>16</v>
       </c>
-      <c r="V132" t="s">
+      <c r="C132" t="s">
         <v>17</v>
       </c>
-      <c r="AC132">
+      <c r="D132">
         <v>28249</v>
       </c>
     </row>
-    <row r="133" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F133">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
         <v>400</v>
       </c>
-      <c r="M133" t="s">
+      <c r="B133" t="s">
         <v>24</v>
       </c>
-      <c r="V133" t="s">
+      <c r="C133" t="s">
         <v>25</v>
       </c>
-      <c r="AC133">
+      <c r="D133">
         <v>26905</v>
       </c>
     </row>
-    <row r="134" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F134">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
         <v>300</v>
       </c>
-      <c r="M134" t="s">
+      <c r="B134" t="s">
         <v>12</v>
       </c>
-      <c r="V134" t="s">
+      <c r="C134" t="s">
         <v>13</v>
       </c>
-      <c r="AC134">
+      <c r="D134">
         <v>24273</v>
       </c>
     </row>
-    <row r="135" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F135">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
         <v>2550</v>
       </c>
-      <c r="M135" t="s">
+      <c r="B135" t="s">
         <v>88</v>
       </c>
-      <c r="V135" t="s">
+      <c r="C135" t="s">
         <v>89</v>
       </c>
-      <c r="AC135">
+      <c r="D135">
         <v>27578</v>
       </c>
     </row>
-    <row r="136" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F136">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
         <v>200</v>
       </c>
-      <c r="M136" t="s">
+      <c r="B136" t="s">
         <v>21</v>
       </c>
-      <c r="V136" t="s">
+      <c r="C136" t="s">
         <v>22</v>
       </c>
-      <c r="AC136">
+      <c r="D136">
         <v>23930</v>
       </c>
     </row>
-    <row r="137" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F137">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
         <v>5000</v>
       </c>
-      <c r="M137" t="s">
+      <c r="B137" t="s">
         <v>72</v>
       </c>
-      <c r="V137" t="s">
+      <c r="C137" t="s">
         <v>90</v>
       </c>
-      <c r="AC137">
+      <c r="D137">
         <v>24004</v>
       </c>
     </row>
-    <row r="138" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F138">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
         <v>100</v>
       </c>
-      <c r="M138" t="s">
+      <c r="B138" t="s">
         <v>47</v>
       </c>
-      <c r="V138" t="s">
+      <c r="C138" t="s">
         <v>48</v>
       </c>
-      <c r="AC138">
+      <c r="D138">
         <v>20395</v>
       </c>
     </row>
-    <row r="139" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F139">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
         <v>25000</v>
       </c>
-      <c r="M139" t="s">
+      <c r="B139" t="s">
         <v>91</v>
       </c>
-      <c r="V139" t="s">
+      <c r="C139" t="s">
         <v>92</v>
       </c>
-      <c r="AC139">
+      <c r="D139">
         <v>22005</v>
       </c>
     </row>
-    <row r="140" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F140">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
         <v>500</v>
       </c>
-      <c r="M140" t="s">
+      <c r="B140" t="s">
         <v>26</v>
       </c>
-      <c r="V140" t="s">
+      <c r="C140" t="s">
         <v>27</v>
       </c>
-      <c r="AC140">
+      <c r="D140">
         <v>27566</v>
       </c>
     </row>
-    <row r="141" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F141">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
         <v>2000</v>
       </c>
-      <c r="M141" t="s">
+      <c r="B141" t="s">
         <v>93</v>
       </c>
-      <c r="V141" t="s">
+      <c r="C141" t="s">
         <v>43</v>
       </c>
-      <c r="AC141">
+      <c r="D141">
         <v>27777</v>
       </c>
     </row>
-    <row r="142" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F142">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
         <v>400</v>
       </c>
-      <c r="M142" t="s">
+      <c r="B142" t="s">
         <v>36</v>
       </c>
-      <c r="V142" t="s">
+      <c r="C142" t="s">
         <v>37</v>
       </c>
-      <c r="AC142">
+      <c r="D142">
         <v>33039</v>
       </c>
     </row>
-    <row r="143" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F143">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
         <v>5000</v>
       </c>
-      <c r="M143" t="s">
+      <c r="B143" t="s">
         <v>94</v>
       </c>
-      <c r="V143" t="s">
+      <c r="C143" t="s">
         <v>95</v>
       </c>
-      <c r="AC143">
+      <c r="D143">
         <v>28090</v>
       </c>
     </row>
-    <row r="144" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F144">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
         <v>300</v>
       </c>
-      <c r="M144" t="s">
+      <c r="B144" t="s">
         <v>12</v>
       </c>
-      <c r="V144" t="s">
+      <c r="C144" t="s">
         <v>13</v>
       </c>
-      <c r="AC144">
+      <c r="D144">
         <v>24273</v>
       </c>
     </row>
-    <row r="145" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F145">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
         <v>200</v>
       </c>
-      <c r="M145" t="s">
+      <c r="B145" t="s">
         <v>36</v>
       </c>
-      <c r="V145" t="s">
+      <c r="C145" t="s">
         <v>37</v>
       </c>
-      <c r="AC145">
+      <c r="D145">
         <v>33039</v>
       </c>
     </row>
-    <row r="146" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F146">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
         <v>400</v>
       </c>
-      <c r="M146" t="s">
+      <c r="B146" t="s">
         <v>51</v>
       </c>
-      <c r="V146" t="s">
+      <c r="C146" t="s">
         <v>52</v>
       </c>
-      <c r="AC146">
+      <c r="D146">
         <v>23662</v>
       </c>
     </row>
-    <row r="147" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F147">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
         <v>200</v>
       </c>
-      <c r="M147" t="s">
+      <c r="B147" t="s">
         <v>4</v>
       </c>
-      <c r="V147" t="s">
+      <c r="C147" t="s">
         <v>20</v>
       </c>
-      <c r="AC147">
+      <c r="D147">
         <v>21497</v>
       </c>
     </row>
-    <row r="148" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F148">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
         <v>300</v>
       </c>
-      <c r="M148" t="s">
+      <c r="B148" t="s">
         <v>16</v>
       </c>
-      <c r="V148" t="s">
+      <c r="C148" t="s">
         <v>17</v>
       </c>
-      <c r="AC148">
+      <c r="D148">
         <v>28249</v>
       </c>
     </row>
-    <row r="149" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F149">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
         <v>200</v>
       </c>
-      <c r="M149" t="s">
+      <c r="B149" t="s">
         <v>21</v>
       </c>
-      <c r="V149" t="s">
+      <c r="C149" t="s">
         <v>22</v>
       </c>
-      <c r="AC149">
+      <c r="D149">
         <v>23930</v>
       </c>
     </row>
-    <row r="150" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F150">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
         <v>400</v>
       </c>
-      <c r="M150" t="s">
+      <c r="B150" t="s">
         <v>24</v>
       </c>
-      <c r="V150" t="s">
+      <c r="C150" t="s">
         <v>25</v>
       </c>
-      <c r="AC150">
+      <c r="D150">
         <v>26905</v>
       </c>
     </row>
-    <row r="151" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F151">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
         <v>5000</v>
       </c>
-      <c r="M151" t="s">
+      <c r="B151" t="s">
         <v>67</v>
       </c>
-      <c r="V151" t="s">
+      <c r="C151" t="s">
         <v>96</v>
       </c>
-      <c r="AC151">
+      <c r="D151">
         <v>32460</v>
       </c>
     </row>
-    <row r="152" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F152">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
         <v>300</v>
       </c>
-      <c r="M152" t="s">
+      <c r="B152" t="s">
         <v>97</v>
       </c>
-      <c r="V152" t="s">
+      <c r="C152" t="s">
         <v>98</v>
       </c>
-      <c r="AC152">
+      <c r="D152">
         <v>22823</v>
       </c>
     </row>
-    <row r="153" spans="6:29" x14ac:dyDescent="0.25">
-      <c r="F153">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
         <v>100</v>
       </c>
-      <c r="M153" t="s">
+      <c r="B153" t="s">
         <v>47</v>
       </c>
-      <c r="V153" t="s">
+      <c r="C153" t="s">
         <v>48</v>
       </c>
-      <c r="AC153">
+      <c r="D153">
         <v>20395</v>
       </c>
     </row>
